--- a/Question_Set2/Role-specific skills/Computer System Architecture.xlsx
+++ b/Question_Set2/Role-specific skills/Computer System Architecture.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are working on a breadboard to test some circuits using benchtop power supplies that provide a wide range of current and voltage supply to the circuit. The binding posts have two inputs supplied with high voltage. A gate is used to produce a high voltage by taking the sum of two inputs. Which of the following gates is used to make this possible?', 'ques_type': 2, 'options': ['OR', 'AND', 'NOT', 'NOR'], 'score': 'OR'}, {'title': 'As a computer system architect, you are responsible for choosing the correct data type for the storage of a string in M bytes, where M is defined as the column length. The string contains a value NEW CITY. Which of the following will you choose as the data type to store the value in RAM?', 'ques_type': 2, 'options': ['Enum', 'Varchar', 'Binary', 'Blob'], 'score': 'Binary'}, {'title': 'You are troubleshooting integrated circuits. Everything is working, but you are unable to get the correct result. Which of the following could cause the problem?', 'ques_type': 2, 'options': ['RAM', 'ROM', 'Processor', 'Resistors'], 'score': 'Resistors'}, {'title': 'You are working as a Junior Cyber Security Analyst at Helifix Technology Company. One morning, you notice that some programs are running with errors, and you need to kill each process manually. You press ctrl+alt+delete to run the task manager and analyze the process tree. From your past security experience, you know ducky scripts execute keyboard sequence commands that run malware in the background. Access to the task manager can enable the malware to manipulate the process list and run on top with most resources allocated to it. To prevent this, you need to develop a subroutine to improve the overall security architecture.The subroutine should be written in which of the following?', 'ques_type': 2, 'options': ['SIEM', 'Firewall', 'Antivirus', 'BIOS'], 'score': 'BIOS'}]</t>
+    <t>questions = [
+    {
+        "title": "You are working on a breadboard to test some circuits using benchtop power supplies that provide a wide range of current and voltage supply to the circuit. The binding posts have two inputs supplied with high voltage. A gate is used to produce a high voltage by taking the sum of two inputs. Which of the following gates is used to make this possible?",
+        "ques_type": 2,
+        "options": [
+            "OR",
+            "AND",
+            "NOT",
+            "NOR"
+        ],
+        "score": "OR"
+    },
+    {
+        "title": "As a computer system architect, you are responsible for choosing the correct data type for the storage of a string in M bytes, where M is defined as the column length. The string contains a value NEW CITY. Which of the following will you choose as the data type to store the value in RAM?",
+        "ques_type": 2,
+        "options": [
+            "Enum",
+            "Varchar",
+            "Binary",
+            "Blob"
+        ],
+        "score": "Binary"
+    },
+    {
+        "title": "You are troubleshooting integrated circuits. Everything is working, but you are unable to get the correct result. Which of the following could cause the problem?",
+        "ques_type": 2,
+        "options": [
+            "RAM",
+            "ROM",
+            "Processor",
+            "Resistors"
+        ],
+        "score": "Resistors"
+    },
+    {
+        "title": "You are working as a Junior Cyber Security Analyst at Helifix Technology Company. One morning, you notice that some programs are running with errors, and you need to kill each process manually. You press ctrl+alt+delete to run the task manager and analyze the process tree. From your past security experience, you know ducky scripts execute keyboard sequence commands that run malware in the background. Access to the task manager can enable the malware to manipulate the process list and run on top with most resources allocated to it. To prevent this, you need to develop a subroutine to improve the overall security architecture.The subroutine should be written in which of the following?",
+        "ques_type": 2,
+        "options": [
+            "SIEM",
+            "Firewall",
+            "Antivirus",
+            "BIOS"
+        ],
+        "score": "BIOS"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
